--- a/medicine/Psychotrope/Lambrusco_montericco/Lambrusco_montericco.xlsx
+++ b/medicine/Psychotrope/Lambrusco_montericco/Lambrusco_montericco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Lambrusco montericco  est un cépage italien de raisins noirs et fait partie de la large famille des Lambrusco.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage Lambrusco montericco provient probablement de la région d'Émilie-Romagne. Montericco est une frazione de la commune d'Albinea.
 Il est classé cépage d'appoint en DOC  Colli di Scandiano e di Canossa Lambrusco Montericco rosato, Colli di Scandiano e di Canossa Lambrusco Montericco rosato frizzante, Colli di Scandiano e di Canossa Lambrusco Montericco rosso, Colli di Scandiano e di Canossa Lambrusco Montericco rosso frizzante, Lambrusco Reggiano, Reggiano Lambrusco novello,  Reggiano Lambrusco rosato,  Reggiano Lambrusco rosso et Reggiano bianco spumante.
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau aranéeux.
 Jeunes feuilles aranéeuses, vert jaunâtre.
@@ -577,7 +593,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de quatrième époque : 40 - 45 jours après le chasselas.
 </t>
@@ -608,7 +626,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont grandes et les baies sont de taille moyenne. La grappe est pyramidale, ailée et lâche ou moyennement compacte. Le cépage est de bonne vigueur et d'une production abondante. Le lambrusco montericco est sensible au millerandage.
 Les vins sont de couleur rouge rubis intense. Les vins frais ont peu de corps.
@@ -640,7 +660,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lambrusco montericco est connu sous les noms de lambrusco selvatica ou selvatica.
 </t>
